--- a/data/trans_bre/P23_DUKE_AF_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AF_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-31,5%</t>
+          <t>-7,31</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>-8,57</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>-0,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-10,44%</t>
+          <t>-1,78%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-10,45%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-13,17%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 2,7</t>
+          <t>-11,9; 12,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 8,5</t>
+          <t>-13,35; 9,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 8,77</t>
+          <t>-7,77; 16,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 5,67</t>
+          <t>-12,6; 12,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-63,87; 24,87</t>
+          <t>-20,06; 6,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,85; 126,21</t>
+          <t>-20,45; 4,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-42,94; 134,67</t>
+          <t>-18,59; 24,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 8,78</t>
+          <t>-22,99; 21,13</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; 40,72</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-20,5; 27,83</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-25,72; 10,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-29,56; 8,18</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,61</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,32</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-29,25%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>7,41%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9,34%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-10,2%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-1,11%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 18,52</t>
+          <t>-8,69; 15,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 10,15</t>
+          <t>-5,06; 15,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 2,71</t>
+          <t>-4,44; 15,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 16,0</t>
+          <t>-19,92; 3,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 211,02</t>
+          <t>-7,56; 16,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,79; 141,84</t>
+          <t>-10,38; 12,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-57,98; 19,23</t>
+          <t>-11,4; 26,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 28,58</t>
+          <t>-7,15; 27,55</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 28,72</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-24,27; 5,46</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-10,22; 29,59</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-13,6; 18,39</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,13</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-9,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-36,3%</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,72%</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-16,4%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>-2,7%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-11,55%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,67%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11,2%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,57; -1,65</t>
+          <t>-15,03; 4,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 5,1</t>
+          <t>-9,49; 6,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 3,69</t>
+          <t>-15,64; -2,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 15,98</t>
+          <t>-9,77; 8,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,29; -6,49</t>
+          <t>-1,87; 16,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 33,49</t>
+          <t>-4,99; 12,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,13; 20,22</t>
+          <t>-19,45; 6,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 27,01</t>
+          <t>-12,82; 9,01</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-19,26; -3,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-13,07; 14,61</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 27,54</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,32; 18,6</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,57</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>4,13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-5,91</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>46,9%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>-10,84</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>68,19%</t>
+          <t>-1,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>-7,2%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-13,57%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 15,02</t>
+          <t>-9,05; 7,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 12,08</t>
+          <t>-2,68; 11,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 18,84</t>
+          <t>-5,61; 8,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 1,67</t>
+          <t>-2,85; 11,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 112,31</t>
+          <t>-13,68; 2,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 71,65</t>
+          <t>-19,77; -3,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,29; 125,93</t>
+          <t>-11,95; 11,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 2,0</t>
+          <t>-3,68; 16,65</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-7,37; 13,32</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 16,99</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-16,06; 3,34</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-23,39; -3,98</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-2,25</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>-0,64</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,92%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>-11,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>59,79%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-3,34%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>-0,91%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-14,46%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 8,19</t>
+          <t>-4,13; 15,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 11,24</t>
+          <t>-8,17; 10,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 15,56</t>
+          <t>-4,15; 13,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 9,64</t>
+          <t>-12,47; 8,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 64,04</t>
+          <t>-9,9; 9,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 79,84</t>
+          <t>-20,56; -1,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 136,7</t>
+          <t>-6,37; 27,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 15,18</t>
+          <t>-12,44; 19,99</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 22,91</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-17,9; 13,7</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-13,18; 15,28</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-25,85; -2,21</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-10,89</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,21%</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-35,57%</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>-10,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,24%</t>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-10,67%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-17,13%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-0,22%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-6,01%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 6,94</t>
+          <t>-16,9; 6,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 1,5</t>
+          <t>-7,35; 17,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 24,65</t>
+          <t>-18,3; 5,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 14,43</t>
+          <t>-24,42; 2,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 37,98</t>
+          <t>-14,05; 14,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,93; 15,49</t>
+          <t>-15,02; 9,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 222,44</t>
+          <t>-26,22; 13,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 31,38</t>
+          <t>-12,55; 42,62</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-26,53; 10,28</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-34,36; 3,91</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-23,38; 31,61</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-21,12; 15,88</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,54%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-4,18%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>-2,06%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-7,33%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,65</t>
+          <t>-5,45; 2,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 4,07</t>
+          <t>-2,95; 5,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 6,72</t>
+          <t>-4,28; 3,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 3,17</t>
+          <t>-7,62; 1,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 20,44</t>
+          <t>-6,0; 2,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 27,27</t>
+          <t>-9,74; -0,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 40,9</t>
+          <t>-8,12; 4,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 4,87</t>
+          <t>-4,6; 8,72</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-6,33; 5,88</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-10,55; 2,86</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-8,5; 4,29</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; -1,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
